--- a/data/crash_test.xlsx
+++ b/data/crash_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Entreprise</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>vincent.attali@mines-ales.org</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2ia</t>
+  </si>
+  <si>
+    <t>maxim.mangematin--mathey@mines-ales.org</t>
   </si>
 </sst>
 </file>
@@ -552,11 +561,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="7"/>

--- a/data/crash_test.xlsx
+++ b/data/crash_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Entreprise</t>
   </si>
@@ -72,6 +72,15 @@
   <si>
     <t>maxim.mangematin--mathey@mines-ales.org</t>
   </si>
+  <si>
+    <t>restest</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>maxim.mangematin@gmail.com</t>
+  </si>
 </sst>
 </file>
 
@@ -80,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +107,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -167,8 +182,8 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -576,11 +591,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="7"/>
